--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>FRV Services Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12000</v>
+        <v>372000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>17/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>El Condor Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>128380</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,30 +520,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25000</v>
+        <v>128380</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,20 +578,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3400</v>
+        <v>130000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>89173</v>
+        <v>3400</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,30 +904,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>89173</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -971,11 +971,11 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>181652</v>
+        <v>3440</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>161000</v>
+        <v>181652</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>161000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,30 +1192,30 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>177410</v>
+        <v>150000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,40 +1336,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>14000</v>
+        <v>177410</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>177410</v>
+        <v>3900</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>177410</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>44128</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,16 +2066,16 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2084,12 +2084,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9410</v>
+        <v>44128</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7100</v>
+        <v>9410</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,12 +2488,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>177410</v>
+        <v>800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>219</v>
+        <v>177410</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>64000</v>
+        <v>219</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2050</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,40 +3064,40 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,40 +3160,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2475</v>
+        <v>30000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>12000</v>
+        <v>2475</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>212</v>
+        <v>12000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,30 +3496,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,40 +3544,40 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4500</v>
+        <v>210</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,12 +3640,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>258</v>
+        <v>4500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>362864</v>
+        <v>5000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>362864</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>356000</v>
+        <v>319</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>356000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,12 +4648,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>637</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>637</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1466</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>75000</v>
+        <v>1466</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5099,21 +5099,21 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,30 +5176,30 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,40 +5224,40 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>17700</v>
+        <v>80000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1750</v>
+        <v>17700</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,36 +6376,40 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>169000</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6420,40 +6424,36 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>91</v>
+        <v>169000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6483,15 +6483,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6574,20 +6574,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,30 +6622,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6683,17 +6683,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,30 +6718,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,10 +6756,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6767,25 +6771,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>347000</v>
+        <v>7</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,14 +6804,10 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6815,15 +6815,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>624</v>
+        <v>347000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>30/03/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6858,30 +6858,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>2000</v>
+        <v>624</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>30/03/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>27/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>27/01/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10859</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
+          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,21 +7059,21 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10858</v>
+        <v>10859</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>02/01/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>10858</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,36 +7136,40 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7180,30 +7184,26 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7213,7 +7213,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7243,25 +7243,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,25 +7387,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,15 +7435,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,15 +7483,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1750</v>
+        <v>139</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,15 +7531,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7574,16 +7574,16 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -7592,12 +7592,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7622,30 +7622,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7675,25 +7675,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7723,25 +7723,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7771,15 +7771,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7814,30 +7814,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Vallenar</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7862,30 +7862,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Empresa Eléctrica Vallenar</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>72000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7915,15 +7915,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8006,30 +8006,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,20 +8054,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8107,25 +8107,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8150,30 +8150,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>7</v>
+        <v>1650</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,30 +8198,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1750</v>
+        <v>7</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
+          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,21 +8303,21 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8342,30 +8342,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,25 +8395,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,15 +8443,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,25 +8491,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8582,20 +8582,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>7000</v>
+        <v>950</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,15 +8635,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8678,16 +8678,16 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8696,12 +8696,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8739,17 +8739,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8779,25 +8779,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,17 +8835,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8923,15 +8923,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8971,25 +8971,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9019,15 +9019,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9067,15 +9067,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9115,25 +9115,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,15 +9163,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9206,30 +9206,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>900</v>
+        <v>138</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
+          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9263,11 +9263,11 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9302,30 +9302,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,20 +9398,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,15 +9451,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,15 +9499,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,15 +9547,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,15 +9595,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9647,11 +9647,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,30 +9676,30 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>500000</v>
+        <v>40</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,30 +9724,30 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9782,30 +9782,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Carlos Breton Moll</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>08/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,25 +9835,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Carlos Breton Moll</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/10/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9878,12 +9878,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9891,7 +9891,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,15 +9931,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,15 +9979,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2119</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,15 +10027,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10075,15 +10075,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,25 +10123,25 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -10179,17 +10179,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Freirina</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10214,12 +10214,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
+          <t>Plan Regulador Comunal de Freirina</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10262,12 +10262,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes Calama Ltda Transcalama</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>12/02/2002</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10310,20 +10310,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Transportes Calama Ltda Transcalama</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>19/12/2001</t>
+          <t>12/02/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,20 +10358,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>19/12/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10411,25 +10411,25 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10459,25 +10459,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10502,30 +10502,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,30 +10540,30 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,12 +10588,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -10603,15 +10603,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10646,20 +10646,20 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Freirina</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10694,20 +10694,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,43 +10732,91 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>Exploración Volcán Aguadita</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="E218" t="inlineStr">
         <is>
           <t>Inversiones North (Chile) Ltda.</t>
         </is>
       </c>
-      <c r="F217" t="n">
+      <c r="F218" t="n">
         <v>120</v>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>16/07/1998</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="I218" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>Freirina</t>
         </is>

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>FRV Services Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>372000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>El Condor Solar SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>128380</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,30 +568,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>128380</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3400</v>
+        <v>130000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>89173</v>
+        <v>3400</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,30 +952,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>89173</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>181652</v>
+        <v>3440</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>161000</v>
+        <v>181652</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>161000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,30 +1240,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>177410</v>
+        <v>150000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,40 +1384,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>14000</v>
+        <v>177410</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>177410</v>
+        <v>3900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>177410</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>44128</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9410</v>
+        <v>44128</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>7100</v>
+        <v>9410</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>177410</v>
+        <v>800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>219</v>
+        <v>177410</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>64000</v>
+        <v>219</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2050</v>
+        <v>10000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,40 +3112,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2475</v>
+        <v>30000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>12000</v>
+        <v>2475</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>212</v>
+        <v>12000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,30 +3544,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,40 +3592,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4500</v>
+        <v>210</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>258</v>
+        <v>4500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>362864</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>362864</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>356000</v>
+        <v>319</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>356000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>150</v>
+        <v>5042</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>637</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>637</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1466</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>75000</v>
+        <v>1466</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5147,21 +5147,21 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,30 +5224,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,40 +5272,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>17700</v>
+        <v>80000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1750</v>
+        <v>17700</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,36 +6424,40 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>169000</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,40 +6472,36 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>91</v>
+        <v>169000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,20 +6622,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,17 +6731,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,10 +6804,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6815,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>347000</v>
+        <v>7</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,14 +6852,10 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6863,15 +6863,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>624</v>
+        <v>347000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/03/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>624</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>30/03/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>27/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>27/01/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10859</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
+          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,21 +7107,21 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10858</v>
+        <v>10859</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>02/01/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>10858</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,36 +7184,40 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,30 +7232,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,15 +7483,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,15 +7531,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1750</v>
+        <v>139</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7622,16 +7622,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7640,12 +7640,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7670,30 +7670,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7723,25 +7723,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7771,25 +7771,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,15 +7819,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7862,30 +7862,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Vallenar</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7910,30 +7910,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Empresa Eléctrica Vallenar</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>72000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8011,15 +8011,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,30 +8054,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8102,20 +8102,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,25 +8155,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,30 +8198,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>7</v>
+        <v>1650</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1750</v>
+        <v>7</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
+          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,21 +8351,21 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8390,30 +8390,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,25 +8443,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,15 +8491,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8630,20 +8630,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>7000</v>
+        <v>950</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,15 +8683,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8726,16 +8726,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8744,12 +8744,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,17 +8787,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8827,25 +8827,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,17 +8883,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8971,15 +8971,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9019,25 +9019,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9067,15 +9067,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9115,15 +9115,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,25 +9163,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,15 +9211,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9254,30 +9254,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>900</v>
+        <v>138</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
+          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,11 +9311,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,30 +9398,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9446,20 +9446,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,15 +9499,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,15 +9547,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,15 +9595,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,15 +9643,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,11 +9695,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,30 +9724,30 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500000</v>
+        <v>40</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,30 +9772,30 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9830,30 +9830,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Carlos Breton Moll</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>08/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,25 +9883,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Carlos Breton Moll</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/10/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9926,12 +9926,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,15 +9979,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,15 +10027,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2119</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10075,15 +10075,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,25 +10171,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10227,17 +10227,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Freirina</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10262,12 +10262,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
+          <t>Plan Regulador Comunal de Freirina</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10310,12 +10310,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Calama Ltda Transcalama</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/02/2002</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,20 +10358,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Transportes Calama Ltda Transcalama</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>19/12/2001</t>
+          <t>12/02/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,20 +10406,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>19/12/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10459,25 +10459,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10507,25 +10507,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10550,30 +10550,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,30 +10588,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10651,15 +10651,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10694,20 +10694,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Freirina</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10742,20 +10742,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,43 +10780,91 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>Exploración Volcán Aguadita</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>Inversiones North (Chile) Ltda.</t>
         </is>
       </c>
-      <c r="F218" t="n">
+      <c r="F219" t="n">
         <v>120</v>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>16/07/1998</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
+      <c r="I219" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>Freirina</t>
         </is>

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Llanos de Marañón</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRV Services Chile SpA</t>
+          <t>El Condor Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>372000</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>128380</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,30 +568,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>128380</v>
+        <v>25000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20000</v>
+        <v>350000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>350000</v>
+        <v>130000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>130000</v>
+        <v>3400</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3400</v>
+        <v>89173</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,30 +952,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>89173</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3440</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3440</v>
+        <v>181652</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>181652</v>
+        <v>161000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>161000</v>
+        <v>30</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,30 +1240,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>150000</v>
+        <v>177410</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,40 +1384,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>177410</v>
+        <v>14000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14000</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3900</v>
+        <v>177410</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>177410</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>44128</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>44128</v>
+        <v>9410</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>9410</v>
+        <v>7100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7100</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>177410</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>177410</v>
+        <v>219</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>219</v>
+        <v>64000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>64000</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>219</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>219</v>
+        <v>12500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10000</v>
+        <v>2050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2050</v>
+        <v>219</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,40 +3112,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>219</v>
+        <v>43000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>43000</v>
+        <v>25000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2050</v>
+        <v>2500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2500</v>
+        <v>30000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>30000</v>
+        <v>2475</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2475</v>
+        <v>12000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12000</v>
+        <v>212</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,30 +3544,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>212</v>
+        <v>380000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,40 +3592,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>380000</v>
+        <v>210</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>210</v>
+        <v>4500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4500</v>
+        <v>258</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>258</v>
+        <v>5000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>362864</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>362864</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>23100</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>23100</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>319</v>
+        <v>356000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>356000</v>
+        <v>100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>12000</v>
+        <v>5042</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5042</v>
+        <v>150</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>637</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>637</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>1466</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1466</v>
+        <v>75000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5147,21 +5147,21 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>75000</v>
+        <v>150</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>150</v>
+        <v>230</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,30 +5224,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>230</v>
+        <v>80000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,40 +5272,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80000</v>
+        <v>17700</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>17700</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>4050</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>2000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2000</v>
+        <v>377</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>377</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,40 +6424,36 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>169000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,36 +6468,40 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>169000</v>
+        <v>91</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,20 +6622,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,17 +6731,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>800</v>
+        <v>7</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,14 +6804,10 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6819,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7</v>
+        <v>347000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,10 +6848,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6863,15 +6863,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>347000</v>
+        <v>624</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>30/03/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>624</v>
+        <v>2000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/03/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>27/01/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>27/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>10859</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/01/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
+          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,21 +7107,21 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10859</v>
+        <v>10858</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/01/2009</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10858</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,40 +7184,36 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,26 +7228,30 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,15 +7483,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1750</v>
+        <v>139</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,15 +7531,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7622,16 +7622,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7640,12 +7640,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7670,30 +7670,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7723,25 +7723,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>250</v>
+        <v>3408</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7771,25 +7771,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3408</v>
+        <v>1650</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,15 +7819,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7862,30 +7862,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Empresa Eléctrica Vallenar</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>72000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7910,30 +7910,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Vallenar</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8011,15 +8011,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,30 +8054,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>11000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8102,20 +8102,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>11000</v>
+        <v>1500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,25 +8155,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1500</v>
+        <v>1650</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,30 +8198,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1650</v>
+        <v>7</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>7</v>
+        <v>1750</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
+          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,21 +8351,21 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8390,30 +8390,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>429</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,25 +8443,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>429</v>
+        <v>234</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,15 +8491,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>234</v>
+        <v>10</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>950</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8630,20 +8630,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>950</v>
+        <v>7000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,15 +8683,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8726,16 +8726,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8744,12 +8744,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,17 +8787,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8827,25 +8827,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,17 +8883,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8971,15 +8971,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9019,25 +9019,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9067,15 +9067,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9115,15 +9115,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,25 +9163,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,15 +9211,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9254,30 +9254,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>138</v>
+        <v>900</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
+          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,11 +9311,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>900</v>
+        <v>8000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,30 +9398,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9446,20 +9446,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,15 +9499,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,15 +9547,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,15 +9595,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,15 +9643,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,11 +9695,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,30 +9724,30 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>40</v>
+        <v>500000</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,30 +9772,30 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500000</v>
+        <v>1</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9830,30 +9830,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Carlos Breton Moll</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/10/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,25 +9883,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Carlos Breton Moll</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>08/10/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9926,12 +9926,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,15 +9979,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,15 +10027,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>2119</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10075,15 +10075,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2119</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,25 +10171,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10227,17 +10227,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Plan Regulador Comunal de Freirina</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10262,12 +10262,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10310,12 +10310,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Transportes Calama Ltda Transcalama</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>12/02/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,20 +10358,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Calama Ltda Transcalama</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/02/2002</t>
+          <t>19/12/2001</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,20 +10406,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>19/12/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10459,25 +10459,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10507,25 +10507,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10550,30 +10550,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,30 +10588,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>50</v>
+        <v>3500</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10651,15 +10651,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>3500</v>
+        <v>110</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10694,20 +10694,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10742,20 +10742,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Freirina</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>360</v>
+        <v>2500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Exploración Volcán Aguadita</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10790,20 +10790,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Inversiones North (Chile) Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2500</v>
+        <v>120</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>16/07/1998</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,58 +10813,10 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
-        <is>
-          <t>Freirina</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>218</v>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Exploración Volcán Aguadita</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Tercera</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Inversiones North (Chile) Ltda.</t>
-        </is>
-      </c>
-      <c r="F219" t="n">
-        <v>120</v>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>16/07/1998</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr">
         <is>
           <t>Freirina</t>
         </is>

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>25/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>FRV Services Chile SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12000</v>
+        <v>372000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>El Condor Solar SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>128380</v>
+        <v>12000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,30 +568,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>25000</v>
+        <v>128380</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,20 +626,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3400</v>
+        <v>130000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>89173</v>
+        <v>3400</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,30 +952,30 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>89173</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1019,11 +1019,11 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>181652</v>
+        <v>3440</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>161000</v>
+        <v>181652</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>161000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,30 +1240,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>177410</v>
+        <v>150000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,40 +1384,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>14000</v>
+        <v>177410</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>177410</v>
+        <v>3900</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>177410</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,17 +1839,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>44128</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>9410</v>
+        <v>44128</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>7100</v>
+        <v>9410</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>177410</v>
+        <v>800</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>219</v>
+        <v>177410</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>64000</v>
+        <v>219</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2987,7 +2987,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2050</v>
+        <v>10000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,40 +3112,40 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2475</v>
+        <v>30000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>12000</v>
+        <v>2475</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>212</v>
+        <v>12000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,30 +3544,30 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,40 +3592,40 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4500</v>
+        <v>210</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>258</v>
+        <v>4500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>362864</v>
+        <v>5000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>362864</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>356000</v>
+        <v>319</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>356000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>637</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>637</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,12 +5032,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1466</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>75000</v>
+        <v>1466</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5147,21 +5147,21 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,30 +5224,30 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,40 +5272,40 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>17700</v>
+        <v>80000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1750</v>
+        <v>17700</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,20 +5522,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,36 +6424,40 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>169000</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6468,40 +6472,36 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>91</v>
+        <v>169000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,7 +6516,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6531,15 +6531,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6622,20 +6622,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,30 +6670,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6731,17 +6731,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,10 +6804,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6815,25 +6819,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>347000</v>
+        <v>7</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,14 +6852,10 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6863,15 +6863,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>624</v>
+        <v>347000</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/03/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>2000</v>
+        <v>624</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>30/03/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>27/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>27/01/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10859</v>
+        <v>0</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
+          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,21 +7107,21 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10858</v>
+        <v>10859</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>02/01/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>10858</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,36 +7184,40 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7228,30 +7232,26 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7261,7 +7261,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7291,25 +7291,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,15 +7483,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,15 +7531,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1750</v>
+        <v>139</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7622,16 +7622,16 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -7640,12 +7640,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7670,30 +7670,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7723,25 +7723,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7771,25 +7771,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,15 +7819,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7862,30 +7862,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Vallenar</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7910,30 +7910,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Empresa Eléctrica Vallenar</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>72000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8011,15 +8011,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,30 +8054,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8102,20 +8102,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,25 +8155,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,30 +8198,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>7</v>
+        <v>1650</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1750</v>
+        <v>7</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
+          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,21 +8351,21 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8390,30 +8390,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,25 +8443,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,15 +8491,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8630,20 +8630,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>7000</v>
+        <v>950</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,15 +8683,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8726,16 +8726,16 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8744,12 +8744,12 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8787,17 +8787,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8827,25 +8827,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,17 +8883,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,7 +8931,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8971,15 +8971,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9019,25 +9019,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9067,15 +9067,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9115,15 +9115,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,25 +9163,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,15 +9211,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9254,30 +9254,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>900</v>
+        <v>138</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
+          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,11 +9311,11 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,30 +9398,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9446,20 +9446,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,15 +9499,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,15 +9547,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,15 +9595,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,15 +9643,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,11 +9695,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,30 +9724,30 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>500000</v>
+        <v>40</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,30 +9772,30 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9830,30 +9830,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Carlos Breton Moll</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>08/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,25 +9883,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Carlos Breton Moll</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/10/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9926,12 +9926,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,15 +9979,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,15 +10027,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>2119</v>
+        <v>200</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10075,15 +10075,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,25 +10171,25 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10219,7 +10219,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -10227,17 +10227,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Freirina</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10262,12 +10262,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
+          <t>Plan Regulador Comunal de Freirina</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10310,12 +10310,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Calama Ltda Transcalama</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>12/02/2002</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,20 +10358,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Transportes Calama Ltda Transcalama</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>19/12/2001</t>
+          <t>12/02/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,20 +10406,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>19/12/2001</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10459,25 +10459,25 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10507,25 +10507,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10550,30 +10550,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,30 +10588,30 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,12 +10636,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -10651,15 +10651,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10694,20 +10694,20 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Freirina</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10742,20 +10742,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,43 +10780,91 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>Exploración Volcán Aguadita</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="E219" t="inlineStr">
         <is>
           <t>Inversiones North (Chile) Ltda.</t>
         </is>
       </c>
-      <c r="F218" t="n">
+      <c r="F219" t="n">
         <v>120</v>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>16/07/1998</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
+      <c r="I219" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>Freirina</t>
         </is>

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J219"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Llanos de Marañón</t>
+          <t>Nueva Línea 1x110 kV Maitencillo-Vallenar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRV Services Chile SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>372000</v>
+        <v>8550</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25/03/2022</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>25/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>FRV Services Chile SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12000</v>
+        <v>372000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>El Condor Solar SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>128380</v>
+        <v>12000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,30 +616,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25000</v>
+        <v>128380</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3400</v>
+        <v>130000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,12 +952,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>89173</v>
+        <v>3400</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,30 +1000,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>89173</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>181652</v>
+        <v>3440</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>161000</v>
+        <v>181652</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>161000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,30 +1288,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>177410</v>
+        <v>150000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,40 +1432,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14000</v>
+        <v>177410</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,11 +1735,11 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>177410</v>
+        <v>3900</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>177410</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>44128</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,16 +2162,16 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2180,12 +2180,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>9410</v>
+        <v>44128</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>7100</v>
+        <v>9410</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,12 +2584,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>177410</v>
+        <v>800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>219</v>
+        <v>177410</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>64000</v>
+        <v>219</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3035,7 +3035,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2050</v>
+        <v>10000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,40 +3160,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,40 +3256,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2475</v>
+        <v>30000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>12000</v>
+        <v>2475</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>212</v>
+        <v>12000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,30 +3592,30 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,40 +3640,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,30 +3698,30 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4500</v>
+        <v>210</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>258</v>
+        <v>4500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>362864</v>
+        <v>5000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>362864</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>356000</v>
+        <v>319</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>356000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,20 +4610,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,12 +4744,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>637</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>637</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1466</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>75000</v>
+        <v>1466</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5195,21 +5195,21 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,30 +5272,30 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,40 +5320,40 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>17700</v>
+        <v>80000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1750</v>
+        <v>17700</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,20 +5570,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,36 +6472,40 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>169000</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6516,40 +6520,36 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>91</v>
+        <v>169000</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,7 +6564,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6579,15 +6579,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6670,20 +6670,20 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,30 +6718,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6779,17 +6779,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,10 +6852,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6863,25 +6867,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>347000</v>
+        <v>7</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,14 +6900,10 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6911,15 +6911,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>624</v>
+        <v>347000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/03/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>2000</v>
+        <v>624</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>30/03/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>27/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>27/01/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10859</v>
+        <v>0</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>02/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
+          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,21 +7155,21 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10858</v>
+        <v>10859</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>02/01/2009</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,30 +7194,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>10858</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,36 +7232,40 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7276,30 +7280,26 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7339,25 +7339,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,25 +7387,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,25 +7483,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,15 +7531,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1750</v>
+        <v>139</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7627,15 +7627,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7670,16 +7670,16 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -7688,12 +7688,12 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7718,30 +7718,30 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7771,25 +7771,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,25 +7819,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7867,15 +7867,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7910,30 +7910,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Vallenar</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7958,30 +7958,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Empresa Eléctrica Vallenar</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>72000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8011,15 +8011,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8059,15 +8059,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8102,30 +8102,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8150,20 +8150,20 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8203,25 +8203,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>7</v>
+        <v>1650</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1750</v>
+        <v>7</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8342,30 +8342,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
+          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,21 +8399,21 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8438,30 +8438,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,25 +8491,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,15 +8539,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,25 +8635,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8678,20 +8678,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>7000</v>
+        <v>950</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8731,15 +8731,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8774,16 +8774,16 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8792,12 +8792,12 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8835,17 +8835,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8875,25 +8875,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,17 +8931,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9019,15 +9019,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9067,25 +9067,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9115,15 +9115,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,15 +9163,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,25 +9211,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9259,15 +9259,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9302,30 +9302,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>900</v>
+        <v>138</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
+          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9359,11 +9359,11 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,30 +9398,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9446,30 +9446,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9494,20 +9494,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,15 +9547,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,15 +9595,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,15 +9643,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,15 +9691,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,11 +9743,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,30 +9772,30 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>500000</v>
+        <v>40</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,30 +9820,30 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9878,30 +9878,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Carlos Breton Moll</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>08/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,25 +9931,25 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Carlos Breton Moll</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/10/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9974,12 +9974,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,15 +10027,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10075,15 +10075,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>2119</v>
+        <v>200</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,15 +10171,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10219,25 +10219,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -10275,17 +10275,17 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Freirina</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10310,12 +10310,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
+          <t>Plan Regulador Comunal de Freirina</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,12 +10358,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Calama Ltda Transcalama</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>12/02/2002</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,20 +10406,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Transportes Calama Ltda Transcalama</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>19/12/2001</t>
+          <t>12/02/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10454,20 +10454,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>19/12/2001</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10507,25 +10507,25 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10555,25 +10555,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10598,30 +10598,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,30 +10636,30 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,12 +10684,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -10699,15 +10699,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10742,20 +10742,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Freirina</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10790,20 +10790,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,43 +10828,91 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
           <t>Exploración Volcán Aguadita</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="E220" t="inlineStr">
         <is>
           <t>Inversiones North (Chile) Ltda.</t>
         </is>
       </c>
-      <c r="F219" t="n">
+      <c r="F220" t="n">
         <v>120</v>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>16/07/1998</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
+      <c r="I220" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>Freirina</t>
         </is>

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J220"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x110 kV Maitencillo-Vallenar</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Genermin SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8550</v>
+        <v>95000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>16/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155868890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,12 +472,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Llanos de Marañón</t>
+          <t>Nueva Línea 1x110 kV Maitencillo-Vallenar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRV Services Chile SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>372000</v>
+        <v>8550</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>25/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>25/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>FRV Services Chile SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>12000</v>
+        <v>372000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>El Condor Solar SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>128380</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,30 +664,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>128380</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3400</v>
+        <v>130000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>89173</v>
+        <v>3400</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,30 +1048,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>89173</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>181652</v>
+        <v>3440</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>161000</v>
+        <v>181652</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>161000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,30 +1336,30 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>177410</v>
+        <v>150000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,40 +1480,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>14000</v>
+        <v>177410</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>177410</v>
+        <v>3900</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>177410</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>44128</v>
+        <v>10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,16 +2210,16 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>9410</v>
+        <v>44128</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7100</v>
+        <v>9410</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>177410</v>
+        <v>800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>219</v>
+        <v>177410</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>64000</v>
+        <v>219</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2050</v>
+        <v>10000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,40 +3208,40 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,40 +3304,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2475</v>
+        <v>30000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>12000</v>
+        <v>2475</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>212</v>
+        <v>12000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,30 +3640,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,40 +3688,40 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4500</v>
+        <v>210</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,12 +3784,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>258</v>
+        <v>4500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>362864</v>
+        <v>5000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>362864</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>356000</v>
+        <v>319</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>356000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,20 +4658,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>637</v>
+        <v>4800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>637</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1466</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>75000</v>
+        <v>1466</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5243,21 +5243,21 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,30 +5320,30 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,40 +5368,40 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>17700</v>
+        <v>80000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1750</v>
+        <v>17700</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,20 +5618,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6063,17 +6063,17 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,36 +6520,40 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>169000</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6564,40 +6568,36 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>91</v>
+        <v>169000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6627,15 +6627,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6718,20 +6718,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,30 +6766,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6827,17 +6827,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6862,30 +6862,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,10 +6900,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6911,25 +6915,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>347000</v>
+        <v>7</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,14 +6948,10 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6959,15 +6959,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>624</v>
+        <v>347000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/03/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>2000</v>
+        <v>624</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>30/03/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>27/01/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>10859</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>02/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
+          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,21 +7203,21 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10858</v>
+        <v>10859</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>02/01/2009</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7242,30 +7242,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>10858</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,36 +7280,40 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr"/>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7324,30 +7328,26 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7357,7 +7357,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7387,25 +7387,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7531,25 +7531,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,15 +7579,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7627,15 +7627,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1750</v>
+        <v>139</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7675,15 +7675,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7718,16 +7718,16 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -7736,12 +7736,12 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7766,30 +7766,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7819,25 +7819,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7867,25 +7867,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7915,15 +7915,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7958,30 +7958,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Vallenar</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8006,30 +8006,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Empresa Eléctrica Vallenar</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>72000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8059,15 +8059,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8107,15 +8107,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8150,30 +8150,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,20 +8198,20 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8251,25 +8251,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>7</v>
+        <v>1650</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8342,30 +8342,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1750</v>
+        <v>7</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8390,30 +8390,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
+          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,21 +8447,21 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8486,30 +8486,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,15 +8587,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,25 +8635,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,25 +8683,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8726,20 +8726,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>7000</v>
+        <v>950</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8779,15 +8779,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8822,16 +8822,16 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8840,12 +8840,12 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8883,17 +8883,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8923,25 +8923,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8979,17 +8979,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,7 +9027,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9067,15 +9067,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9115,25 +9115,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,15 +9163,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,15 +9211,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9259,25 +9259,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9307,15 +9307,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>900</v>
+        <v>138</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
+          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9407,11 +9407,11 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9446,30 +9446,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9494,30 +9494,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9542,20 +9542,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,15 +9595,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,15 +9643,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,15 +9691,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,15 +9739,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,11 +9791,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,30 +9820,30 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>500000</v>
+        <v>40</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,30 +9868,30 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9926,30 +9926,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Carlos Breton Moll</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>08/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,25 +9979,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Carlos Breton Moll</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/10/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10022,12 +10022,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10035,7 +10035,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10045,7 +10045,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10075,15 +10075,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>2119</v>
+        <v>200</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,15 +10171,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10219,15 +10219,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10267,25 +10267,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10315,7 +10315,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -10323,17 +10323,17 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Freirina</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,12 +10358,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10371,7 +10371,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
+          <t>Plan Regulador Comunal de Freirina</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,12 +10406,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Transportes Calama Ltda Transcalama</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>12/02/2002</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10454,20 +10454,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Transportes Calama Ltda Transcalama</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>19/12/2001</t>
+          <t>12/02/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10502,20 +10502,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>19/12/2001</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10555,25 +10555,25 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10603,25 +10603,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10646,30 +10646,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,30 +10684,30 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,12 +10732,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -10747,15 +10747,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10790,20 +10790,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Freirina</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10838,20 +10838,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10876,43 +10876,91 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>Exploración Volcán Aguadita</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="E221" t="inlineStr">
         <is>
           <t>Inversiones North (Chile) Ltda.</t>
         </is>
       </c>
-      <c r="F220" t="n">
+      <c r="F221" t="n">
         <v>120</v>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>16/07/1998</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
+      <c r="I221" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr">
+      <c r="J221" t="inlineStr">
         <is>
           <t>Freirina</t>
         </is>

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/05/2022</t>
+          <t>17/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J221"/>
+  <dimension ref="A1:J222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Parque Solar La Totora</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Genermin SPA</t>
+          <t>PARSOSY SUNNA SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>95000</v>
+        <v>74000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>01/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155868890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155976015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x110 kV Maitencillo-Vallenar</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>Genermin SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8550</v>
+        <v>95000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155868890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Llanos de Marañón</t>
+          <t>Nueva Línea 1x110 kV Maitencillo-Vallenar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRV Services Chile SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>372000</v>
+        <v>8550</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>25/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>FRV Services Chile SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
+        <v>372000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>El Condor Solar SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>128380</v>
+        <v>12000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,30 +712,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>128380</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3400</v>
+        <v>130000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>89173</v>
+        <v>3400</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,30 +1096,30 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>89173</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,11 +1163,11 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>181652</v>
+        <v>3440</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>161000</v>
+        <v>181652</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>161000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,30 +1384,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>177410</v>
+        <v>150000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,40 +1528,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>14000</v>
+        <v>177410</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>177410</v>
+        <v>3900</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1844,12 +1844,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>177410</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,17 +1983,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>44128</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,16 +2258,16 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>9410</v>
+        <v>44128</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>7100</v>
+        <v>9410</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,12 +2680,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>177410</v>
+        <v>800</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>219</v>
+        <v>177410</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>64000</v>
+        <v>219</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2050</v>
+        <v>10000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,40 +3256,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,40 +3352,40 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2475</v>
+        <v>30000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>12000</v>
+        <v>2475</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>212</v>
+        <v>12000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,30 +3688,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,40 +3736,40 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4500</v>
+        <v>210</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,12 +3832,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>258</v>
+        <v>4500</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>362864</v>
+        <v>5000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>362864</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>356000</v>
+        <v>319</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>356000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,20 +4706,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>150</v>
+        <v>5042</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>637</v>
+        <v>4800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>637</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1466</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>75000</v>
+        <v>1466</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5291,21 +5291,21 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,30 +5368,30 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,40 +5416,40 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>17700</v>
+        <v>80000</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1750</v>
+        <v>17700</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,20 +5666,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6111,17 +6111,17 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Ampliación Nº 2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4077867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,36 +6568,40 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>169000</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>16/09/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6612,40 +6616,36 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>EIA Ampliación y Mejoras Operacionales en Mina Los Colorados</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sociedad Servifosa Ltda.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>91</v>
+        <v>169000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>07/09/2009</t>
+          <t>16/09/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4043197&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de residuos sólidos y líquidos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6675,15 +6675,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Servifosa Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>91</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>07/09/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3975477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6723,15 +6723,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6756,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6766,20 +6766,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Roberto Aburto Zazzali</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>550</v>
+        <v>50</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>17/07/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6804,7 +6804,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE ACIDO SULFURICO EN LA III REGION (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6814,30 +6814,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Roberto Aburto Zazzali</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>17/07/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3856270&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6852,7 +6852,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6875,17 +6875,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6910,30 +6910,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>7</v>
+        <v>800</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,10 +6948,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -6959,25 +6963,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>347000</v>
+        <v>7</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07/04/2009</t>
+          <t>11/06/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3835562&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,14 +6996,10 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Ampliación y Mejoras Operacionales en Planta de Pellets</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>Tercera</t>
@@ -7007,15 +7007,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>624</v>
+        <v>347000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/03/2009</t>
+          <t>07/04/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3662673&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
+          <t>REPARACIÓN SIFON QUEBRADA LOS SUEROS CANAL SAN JOSE (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>COMUNIDAD DE AGUAS CANAL SAN JOSÉ</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>2000</v>
+        <v>624</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>02/02/2009</t>
+          <t>30/03/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3654077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
+          <t>TRANSPORTE SE SUSTANCIAS PELIGROSAS ENTRE LAS REGIÓNES I, II, III, IV, V, REGIÓN METROPOLITANA y VI REGION (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>27/01/2009</t>
+          <t>02/02/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3533261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Recuperación de Mineral de Hierro desde Rodados Almireces (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>27/01/2009</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3519136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7194,30 +7194,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>10859</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>02/01/2009</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
+          <t>Construcción Variante Ruta C-46, Freirina. Dm 0,000 a Dm 8,200. Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7251,21 +7251,21 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>10858</v>
+        <v>10859</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>03/12/2008</t>
+          <t>02/01/2009</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3449585&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Construcción Variante Ruta C -46, Freirina, Dm 0,000 a Dm 8,200, Región de Atacama (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7290,30 +7290,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>10858</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>03/12/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3377927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,36 +7328,40 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sociedad Contractual Minera El Morro</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>25/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7372,30 +7376,26 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Estudio de Impacto Ambiental Proyecto El Morro</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Sociedad Contractual Minera El Morro</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>14/11/2008</t>
+          <t>25/11/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3344438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7435,25 +7435,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>14/11/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3348113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7483,25 +7483,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7539,7 +7539,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7579,25 +7579,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7627,15 +7627,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>139</v>
+        <v>1750</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>26/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7675,15 +7675,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1750</v>
+        <v>139</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>26/09/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3218917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7708,7 +7708,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7723,15 +7723,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>01/09/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7766,16 +7766,16 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -7784,12 +7784,12 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta de Equipos Generadores de Vallenar (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7814,30 +7814,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>01/09/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7867,25 +7867,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7915,25 +7915,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1650</v>
+        <v>3408</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8006,30 +8006,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Vallenar</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>72000</v>
+        <v>20</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Central Termoeléctrica Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8054,30 +8054,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Empresa Eléctrica Vallenar</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>20</v>
+        <v>72000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3065584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8107,15 +8107,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,15 +8155,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,30 +8198,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Guacolda Energía SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>11000</v>
+        <v>20</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>19/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
+          <t>LÍNEA DE TRANSMISIÓN 2X220 KV GUACOLDA - MAITENCILLO (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,20 +8246,20 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Guacolda Energía SpA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>04/04/2008</t>
+          <t>19/05/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904232&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Modificación proyecto Continuidad Operativa en el Tratamiento de Polvos de Fundición (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8299,25 +8299,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Minera Cerro Dominador S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>1650</v>
+        <v>1500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>02/04/2008</t>
+          <t>04/04/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2820973&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8342,30 +8342,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>7</v>
+        <v>1650</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/03/2008</t>
+          <t>02/04/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8390,30 +8390,30 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1750</v>
+        <v>7</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>31/03/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2811812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8438,30 +8438,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>18/12/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
+          <t>Estación de Transferencia de Minerales de Hierro, Sector Maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,21 +8495,21 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23/11/2007</t>
+          <t>18/12/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2544640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Estacion de Transferencia de minerales de Hierro, Sector maitencillo (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8534,30 +8534,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>429</v>
+        <v>500</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>23/11/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2484154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,15 +8635,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,25 +8683,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8731,25 +8731,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Anglo American Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>950</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>24/05/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Ferroviario de alimentos (e-seia)</t>
+          <t>Manejo y Transporte de Polvos Metalurgicos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8774,20 +8774,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
+          <t>Anglo American Sur S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>7000</v>
+        <v>950</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05/04/2007</t>
+          <t>24/05/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159012&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
+          <t>Transporte Ferroviario de alimentos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8827,15 +8827,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Guacolda S.A.</t>
+          <t>EMPRESA DE TRANSPORTE FERROVIARIO S.A</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>9000</v>
+        <v>7000</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>05/04/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2080886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Segundo Circuito 220 kV Línea Maitencillo - Cardones (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8870,16 +8870,16 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Eléctrica Guacolda S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8888,12 +8888,12 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1924188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8931,17 +8931,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8971,25 +8971,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,17 +9027,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,7 +9075,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9115,15 +9115,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,25 +9163,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,15 +9211,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>28/07/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACIÓN DEL PROYECTO TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE EL PUERTO DE SAN ANTONIO HASTA MINA REFUGIO ALTERNATIVA PUERTO DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9259,15 +9259,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>19/07/2006</t>
+          <t>28/07/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1595010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9307,25 +9307,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>INGENERIÍA EN RESIDUOS Y MEDIO AMBIENTE</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>19/07/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1576625&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9355,15 +9355,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>20/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9373,7 +9373,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,30 +9398,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>900</v>
+        <v>138</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>20/06/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1504742&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
+          <t>Empréstitos para Áridos Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9455,11 +9455,11 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>8000</v>
+        <v>900</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>25/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1492072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Subestación Eléctrica Proyecto Norte Huasco Subestación Eléctrica Proyecto Norte Huasco (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9494,30 +9494,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>25/05/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1436186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9542,30 +9542,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>23/12/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Extracción de Desmontes Distritos Fragüita y El Morado (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9590,20 +9590,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Sociedad de Exploración y Desarrollo Minero \\\"EXPLODESA\\\"</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>23/12/2005</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1179546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,15 +9643,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,15 +9691,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,15 +9739,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,15 +9787,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>The Chemours Company Chile Limitada</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>15/07/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA EL PROYECTO MINERO DE ORO COIPA MINERA MANTOS DE ORO (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,11 +9839,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>15/07/2005</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=934262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,30 +9868,30 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Proyecto Agroindustrial del Valle de Huasco</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO DESDE PUERTO DE SAN ANTONIO HASTA MINA REFUGIO COMPAÑÍA MINERA MARICUNGA (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Agrocomercial AS Limitada</t>
+          <t>The Chemours Company Chile Limitada</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>500000</v>
+        <v>40</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>08/02/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887586&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,30 +9916,30 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Proyecto Agroindustrial del Valle de Huasco</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Agrocomercial AS Limitada</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>1</v>
+        <v>500000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>08/02/2005</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1075666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9974,30 +9974,30 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Carlos Breton Moll</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>08/10/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
+          <t>CCP, Sector Norte Caleta Chañaral, Pert N° 203032004 (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,25 +10027,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SEREMI MINVU ATACAMA</t>
+          <t>Carlos Breton Moll</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>27/09/2004</t>
+          <t>08/10/2004</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=473183&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10070,12 +10070,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>SEREMI MINVU ATACAMA</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -10083,7 +10083,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>27/09/2004</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=451644&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,15 +10171,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Servicios de Transportes Integrados Ltda</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>2119</v>
+        <v>200</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>02/05/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Transporte Terrestre de Sustancias Peligrosas entre la Primera y Cuarta Regiones de Chile (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10219,15 +10219,15 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Servicios de Transportes Integrados Ltda</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>2119</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>02/05/2003</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79723&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10267,15 +10267,15 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10315,25 +10315,25 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -10371,17 +10371,17 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Freirina</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,12 +10406,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10419,7 +10419,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -10429,7 +10429,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
+          <t>Plan Regulador Comunal de Freirina</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10454,12 +10454,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Calama Ltda Transcalama</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>12/02/2002</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I II y III</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10502,20 +10502,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Transportes Calama Ltda Transcalama</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>19/12/2001</t>
+          <t>12/02/2002</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5108&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas Freirina</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10550,20 +10550,20 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>19/12/2001</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4915&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10603,25 +10603,25 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10651,25 +10651,25 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Compañía Minera Lomas Bayas (Santiago)</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>28/11/2000</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
+          <t>Transporte de Ácido Sulfúrico por los Caminos que se Indican entre la I y la VI región para el Suministro Alternativo de la Faena Minera Lomas Bayas</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10694,30 +10694,30 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
+          <t>Compañía Minera Lomas Bayas (Santiago)</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>28/11/2000</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3397&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,30 +10732,30 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Mejoramiento del Proceso y Aumento de Producción Planta de Chancado y Selección de Caliza</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Sociedad de Inversiones y Servicios Ltda (SISEL Ltda)</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>3500</v>
+        <v>50</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,12 +10780,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -10795,15 +10795,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10838,20 +10838,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Freirina</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>360</v>
+        <v>110</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>21/12/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Mejoramiento de Barrios Poblaciones Vicuña Mackenna Bajo El Minero y Otros-Freirina</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10886,20 +10886,20 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>I. Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2500</v>
+        <v>360</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>21/12/1999</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10924,43 +10924,91 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>Freirina</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>Exploración Volcán Aguadita</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
         <is>
           <t>Tercera</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>Inversiones North (Chile) Ltda.</t>
         </is>
       </c>
-      <c r="F221" t="n">
+      <c r="F222" t="n">
         <v>120</v>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>16/07/1998</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr">
+      <c r="I222" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1126&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr">
+      <c r="J222" t="inlineStr">
         <is>
           <t>Freirina</t>
         </is>

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01/06/2022</t>
+          <t>18/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El Condor Solar SpA</t>
+          <t>Las Tablas Solar SpA</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -8299,7 +8299,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F166" t="n">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -6535,7 +6535,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad Transportes Ilzauspe Limitada</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Freirina.xlsx
+++ b/data/Freirina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Solar La Totora</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PARSOSY SUNNA SpA</t>
+          <t>Parque Solar Llanos de Marañón SpA......</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>74000</v>
+        <v>372000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>30/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155976015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158472609&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Parque Solar La Totora</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Genermin SPA</t>
+          <t>PARSOSY SUNNA SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>95000</v>
+        <v>74000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155868890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155976015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nueva Línea 1x110 kV Maitencillo-Vallenar</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>Genermin SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8550</v>
+        <v>95000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656724&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155868890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Llanos de Marañón</t>
+          <t>Nueva Línea 1x110 kV Maitencillo-Vallenar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRV Services Chile SpA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>372000</v>
+        <v>8550</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155656724&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>25/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155428693&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
+          <t>Parque Fotovoltaico Llanos de Marañón</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Las Tablas Solar SpA</t>
+          <t>FRV Services Chile SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>12000</v>
+        <v>372000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155416581&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama</t>
+          <t>PROYECTO FOTOVOLTAICO LAS TABLAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Eólico Atacama SpA</t>
+          <t>Las Tablas Solar SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>128380</v>
+        <v>12000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/04/2020</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151199209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,30 +760,30 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque Eólico Atacama</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Parque Eólico Atacama SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>128380</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145215132&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Prospecciones La Cobaltera</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Baltum Minería SpA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03/06/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Desalinizadora Cerro Blanco</t>
+          <t>Prospecciones La Cobaltera</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Baltum Minería SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>28/05/2019</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239041&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central Solar Fotovoltaica El Sauce</t>
+          <t>Planta Desalinizadora Cerro Blanco</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>130000</v>
+        <v>350000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/03/2019</t>
+          <t>28/05/2019</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143239135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Nicolás Guillermo Hunfan Blas</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/03/2019</t>
+          <t>20/03/2019</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142773788&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Genermin Spa</t>
+          <t>Nicolás Guillermo Hunfan Blas</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/02/2019</t>
+          <t>18/03/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142771365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
+          <t>Central Solar Fotovoltaica El Sauce</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Hilmar SpA</t>
+          <t>Genermin Spa</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3400</v>
+        <v>130000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>31/01/2019</t>
+          <t>22/02/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142379035&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
+          <t>Transporte Terrestre Interregional de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ELETRANS III S.A</t>
+          <t>Hilmar SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>89173</v>
+        <v>3400</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21/01/2019</t>
+          <t>31/01/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142177433&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,30 +1144,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
+          <t>Nueva Línea Nueva Maitencillo -Punta Colorada -Nueva Pan de Azúcar 2x220 kV, 2x500 MVA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>ELETRANS III S.A</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>89173</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/11/2018</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142266195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
+          <t>Modificación de la operación de 4 aerogeneradores Parque eólico San Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1211,11 +1211,11 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3440</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21/09/2018</t>
+          <t>23/11/2018</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141864334&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Proyecto Línea de Transmisión Eléctrica San Juan conexión Sarco</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>181652</v>
+        <v>3440</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/04/2017</t>
+          <t>21/09/2018</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141393272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Proyecto Minero Mariposa</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>161000</v>
+        <v>181652</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16/12/2016</t>
+          <t>06/04/2017</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132282080&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Proyecto Minero Mariposa</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Admiralty Minerals Chile PTI LTD Agencia en Chile</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>161000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12/10/2016</t>
+          <t>16/12/2016</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131995409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Modificación del Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>12/10/2016</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131856064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,30 +1432,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Libertad I y II</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Libertad SpA.</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>150000</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11/08/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Planta Solar Fotovoltaica Libertad I y II</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>Libertad SpA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>177410</v>
+        <v>150000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/07/2016</t>
+          <t>11/08/2016</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131580013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/06/2016</t>
+          <t>08/07/2016</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131537155&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,40 +1576,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRANCISCO CAYO ALVINO</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>14000</v>
+        <v>177410</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>17/06/2016</t>
+          <t>20/06/2016</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131478327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>Modificación de Transporte Terrestre de Ácido Sulfúrico por Carreteras de la II Región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>FRANCISCO CAYO ALVINO</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4000</v>
+        <v>14000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30/11/2015</t>
+          <t>17/06/2016</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131449847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Desarrollo Minero Distrito Cristales</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7100</v>
+        <v>4000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11/11/2015</t>
+          <t>30/11/2015</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130936747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
+          <t>Desarrollo Minero Distrito Cristales</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03/11/2015</t>
+          <t>11/11/2015</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130892863&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
+          <t>DESARROLLO MINERO DISTRITO CRISTALES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>7100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05/08/2015</t>
+          <t>03/11/2015</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130875136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
+          <t>Transporte Terrestre de Sustancias Corrosivas en Región de Atacama</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/06/2015</t>
+          <t>05/08/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130656004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones III</t>
+          <t>Aumento de capacidad de Línea Maitencillo Cardones 1x220 kV</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,11 +1879,11 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>177410</v>
+        <v>3900</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130547378&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Parque Eólico Cabo Leones III</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>177410</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>22/06/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130464506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>09/01/2015</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119810&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes DE&amp;FE SpA</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2031,17 +2031,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/12/2014</t>
+          <t>09/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130119630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico entre la XV, I, II y III Regiones de Chile</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lincoyán Gregorio Bautista Cárdenas</t>
+          <t>Transportes DE&amp;FE SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>29/12/2014</t>
+          <t>30/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090735&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación de Rutas de Transporte de Ácido Sulfúrico entre la I, II y III Regiones</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Lincoyán Gregorio Bautista Cárdenas</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>29/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130090791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Parque Solar Llano Victoria</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>44128</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Parque Solar Llano Victoria</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>44128</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129927639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Parque solar Llano Victoria</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Llano Victoria SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>44128</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
+          <t>Parque solar Llano Victoria</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Llano Victoria SPA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>9410</v>
+        <v>44128</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18/07/2014</t>
+          <t>22/10/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129893251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés a SE Maitencillo</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>7100</v>
+        <v>9410</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129636966&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11/07/2014</t>
+          <t>18/07/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129645422&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>Regularización Cerro Negro Cristales y Explotación de Minerales de Hierro Sector Loma Cortadera</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>7100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>11/07/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129615525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos e Industriales</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26/03/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18/03/2014</t>
+          <t>26/03/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129345602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,12 +2728,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Transporte de Residuos Peligrosos e Industriales</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Interchile S.A</t>
+          <t>SERVICIOS INTEGRALES VIA VERDE LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06/03/2014</t>
+          <t>18/03/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129322168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
+          <t>Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14/02/2014</t>
+          <t>06/03/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129293279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>EIA Plan de Expansión Chile LT 2x500 kV Cardones - Polpaico</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Interchile S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>800</v>
+        <v>1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>14/02/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129271376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leonés III</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PE Cabo Leones III SpA</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>177410</v>
+        <v>800</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Parque Eólico Cabo Leonés III</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>PE Cabo Leones III SpA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>219</v>
+        <v>177410</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128955382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>64000</v>
+        <v>219</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Línea de Transmisión y Subestación Eléctrica San Juan</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>PARQUE EÓLICO SAN JUAN S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>64000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128961499&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>219</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>13/09/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,11 +3127,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>12500</v>
+        <v>219</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3140,12 +3140,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128556590&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
+          <t>Transporte de Sustancias Peligrosas, Regiones II, III, IV, V, R.M. Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3179,7 +3179,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS (TNT), REGIONES I, II, III, IV ENAEX SERVICIOS S.A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2050</v>
+        <v>10000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>13/09/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128570950&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>219</v>
+        <v>2050</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17/07/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,40 +3304,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>43000</v>
+        <v>219</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>03/07/2013</t>
+          <t>17/07/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8332634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
+          <t>Línea de Transmisión Eléctrica S/E Punta Alcalde - S/E Maitencillo LTE S/E Punta Alcalde- S/E Maitencillo</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25000</v>
+        <v>43000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>26/06/2013</t>
+          <t>03/07/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8298123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,40 +3400,40 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>LÍNEA DE TRANSMISIÓN ELÉCTRICA 2 X 220 kV, TRAMO SARCO - MAITENCILLO, COMUNAS DE FREIRINA Y VALLENAR, PROVINCIA DEL HUASCO, REGIÓN DE ATACAMA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>26/06/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8225853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2500</v>
+        <v>2050</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Santa Fe Holding SpA</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>30000</v>
+        <v>2500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Explotación y Beneficio Yacimiento de Hierro Mina Carmen</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Santa Fe Holding SpA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2475</v>
+        <v>30000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>29/04/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8116984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,30 +3650,30 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>12000</v>
+        <v>2475</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Línea de Alta Tensión de Doble Circuito de 220 kV Subestación Domeyko a Subestación Maitencillo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>212</v>
+        <v>12000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/04/2013</t>
+          <t>11/04/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8041876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,30 +3736,30 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Proyecto Cerro Blanco</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Atacama Sur SpA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>380000</v>
+        <v>212</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>28/02/2013</t>
+          <t>04/04/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8022221&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,40 +3784,40 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Aceite Usado</t>
+          <t>Proyecto Cerro Blanco</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Constructora Vecchiola S.A</t>
+          <t>Atacama Sur SpA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>210</v>
+        <v>380000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>28/02/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7895426&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
+          <t>Transporte de Aceite Usado</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
+          <t>Constructora Vecchiola S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4500</v>
+        <v>210</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21/02/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7883272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Parque Eólico Sarco</t>
+          <t>Subestación Eléctrica y Línea de Transmisión 110 KV desde S/E propia a S/E Maitencillo</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Aela Eólica Sarco SpA</t>
+          <t>DESARROLLO ENERGÉTICO SOLAR CHILE SPA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>500000</v>
+        <v>4500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>01/10/2012</t>
+          <t>21/02/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7902680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,12 +3928,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
+          <t>Parque Eólico Sarco</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Desarrollo Energético Solar Chile SpA</t>
+          <t>Aela Eólica Sarco SpA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>4500</v>
+        <v>500000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>24/08/2012</t>
+          <t>01/10/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7342796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero de Freirina</t>
+          <t>Subestación eléctrica y Línea de Transmisión Denersol 110KV desde Plantas Fotovoltaicas Canto del Agua (21 MW), Denersol II (7,5 MW) y Denersol III (30 MW), a Subestación Maitencillo, Provincia de Huasco, Comunas de Vallenar y Freirina, Región de Atacama</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Freirina</t>
+          <t>Desarrollo Energético Solar Chile SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>258</v>
+        <v>4500</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/06/2012</t>
+          <t>24/08/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
+          <t>Cierre y Sellado Vertedero de Freirina</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/05/2012</t>
+          <t>08/06/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6998326&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Cierre y Sellado Vertedero Comuna de Freirina</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Ilustre Municipalidad de Freirina</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5000</v>
+        <v>258</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>24/05/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6927083&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones II</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones II S.A.</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>362864</v>
+        <v>5000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Parque Eólico Cabo Leones II</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Ibereólica Cabo Leones II S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>362864</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6772226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>San Juan S.A</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21/03/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
+          <t>Parque Eólico san Juan de Chañaral de Aceituno</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Energy Focus S.A</t>
+          <t>San Juan S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/03/2012</t>
+          <t>21/03/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
+          <t>PROYECTO EOLICO SAN JUAN DE CHAÑARAL DE ACEITUNO</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Línea de Transmisión Cabo Leones S.A.</t>
+          <t>Energy Focus S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/03/2012</t>
+          <t>12/03/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6690383&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Línea de Transmisión Eléctrica de Doble Circuito de 220 kV Cabo Leonés y Subestación Eléctrica Domeyko</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Línea de Transmisión Cabo Leones S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>23100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>01/03/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6642201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Compañia Minera Filipinas Spa</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>2500</v>
+        <v>100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Aumento de Producción Proyecto Minero Filipina Grande</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Compañia Minera Filipinas Spa</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6284271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Parque Eólico Cabo Leones</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4610,30 +4610,30 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ibereólica Cabo Leones I S.A.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>356000</v>
+        <v>319</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>28/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
+          <t>Parque Eólico Cabo Leones</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Ibereólica Cabo Leones I S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>356000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>28/09/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6079443&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PROSPECCION MINERA CACHIYUYO</t>
+          <t>Transporte de Sustancias Peligrosas entre la I, II y III Regiones"</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,30 +4706,30 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>29/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003607&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>PROSPECCION MINERA CACHIYUYO</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4754,20 +4754,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONTRACTUAL MINERA ROCK EXPLORATION</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>12000</v>
+        <v>300</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>29/08/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1466</v>
+        <v>5042</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Erradicación del Conejo Europeo en las Islas Chañaral y Choros</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>5042</v>
+        <v>1466</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>23/03/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5456242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>5042</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>16/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5337834&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>Transporte y Manejo In Situ de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4800</v>
+        <v>150</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>16/02/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5360875&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Nueva Atacama S.A</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>637</v>
+        <v>4800</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/02/2011</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Industriales</t>
+          <t>"MEJORAMIENTO PLANTA DE TRATAMIENTO DE AGUAS SERVIDAS, FREIRINA-AGUAS CHAÑAR S.A"</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Nueva Atacama S.A</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>637</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>31/01/2011</t>
+          <t>02/02/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5300823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,12 +5224,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
+          <t>Transporte de Residuos Peligrosos Industriales</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1466</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06/01/2011</t>
+          <t>31/01/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5146101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,12 +5272,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
+          <t>EIA "Erradicación del Conejo Europeo de las Islas Chañaral y Choros, Reserva Nacional Pingüino de Humboldt: Una alternativa para contribuir con los objetivos de conservación de esta Área Protegida" .</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Mol Ambiente S.A.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>75000</v>
+        <v>1466</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/12/2010</t>
+          <t>06/01/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5215510&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5339,21 +5339,21 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>150</v>
+        <v>75000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>27/10/2010</t>
+          <t>02/12/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5118945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
+          <t>II MODIFICACIÓN DIA "TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS PELIGROSOS Y NO PELIGROSOS"</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Servicios Integrados de Transporte Ltda.</t>
+          <t>Mol Ambiente S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>06/10/2010</t>
+          <t>27/10/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5030297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,30 +5416,30 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
+          <t>TRANSPORTE DE CIANURO DE SODIO SÓLIDO SEGÚN RUTAS SEÑALADAS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SCM MINERA LUMINA COPPER CHILE</t>
+          <t>Servicios Integrados de Transporte Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>80000</v>
+        <v>230</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/09/2010</t>
+          <t>06/10/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4981553&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,40 +5464,40 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Línea de Transmisión 2x220 kV Maitencillo - Caserones</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>SCM MINERA LUMINA COPPER CHILE</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>17700</v>
+        <v>80000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>30/09/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4965957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1750</v>
+        <v>17700</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5666,30 +5666,30 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Vallenar</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Saneamiento Ambiental Vertedero de Vallenar y Construcción Relleno Sanitario Provincia del Huasco.</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,20 +5714,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ilustre Municipalidad de Vallenar</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>21/06/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4671284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6159,17 +6159,17 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Tercera</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Servicio Nacional de Pesca, Región de Atacama</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>27/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Plan General de Administración de la Reserva Marina Isla Chañaral, Comuna de Freirina (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Tercera</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Servicio Nacional de Pesca, Región de Atacama</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>2000</v>
+        <v>6</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/11/2009</t>
+          <t>27/11/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4223366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>377</v>
+        <v>2000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>18/11/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pel